--- a/biology/Botanique/Carex_diandre/Carex_diandre.xlsx
+++ b/biology/Botanique/Carex_diandre/Carex_diandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex diandra (appelé en français Laîche arrondie, Laîche à tige arrondie, Laîche à deux étamines) est une espèce de plantes du genre Carex et de la famille des Cyperaceae.
 Il est largement distribué dans l'hémisphère Nord, où on le trouve en Amérique du Nord, en Europe et en Asie. Il est également rencontré en Nouvelle-Zélande. Il pousse dans une grande variété d'habitats humides, comme les étangs, prairies et tourbières.
